--- a/ExcelMapper.Test/AppData/data.xlsx
+++ b/ExcelMapper.Test/AppData/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorou\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorou\source\repos\ExcelMapper\ExcelMapper.Test\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1603F8F-6342-4A79-BCB7-813E3E61BE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6570626E-7B28-468E-9EBE-9BFFCF2E20EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{96F14101-741A-4D25-98CD-020B423B0CEB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -81,16 +81,58 @@
   </si>
   <si>
     <t>Hagigat doost</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Tehran 1</t>
+  </si>
+  <si>
+    <t>Tehran 2</t>
+  </si>
+  <si>
+    <t>Tehran 3</t>
+  </si>
+  <si>
+    <t>Tehran 4</t>
+  </si>
+  <si>
+    <t>Tehran 5</t>
+  </si>
+  <si>
+    <t>Tehran 6</t>
+  </si>
+  <si>
+    <t>Tehran 7</t>
+  </si>
+  <si>
+    <t>Tehran 8</t>
+  </si>
+  <si>
+    <t>Tehran 9</t>
+  </si>
+  <si>
+    <t>Tehran 10</t>
+  </si>
+  <si>
+    <t>Tehran 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -433,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C848E7-233E-4AE4-9B1E-E3CA7F851679}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -446,7 +488,7 @@
     <col min="5" max="5" width="14.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +504,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -479,8 +524,11 @@
       <c r="E2">
         <v>1570064962</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -496,8 +544,11 @@
       <c r="E3">
         <v>1570064963</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -513,8 +564,11 @@
       <c r="E4">
         <v>1570064964</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -530,8 +584,11 @@
       <c r="E5">
         <v>1570064965</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -544,8 +601,11 @@
       <c r="E6">
         <v>1570064966</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -561,8 +621,11 @@
       <c r="E7">
         <v>1570064967</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -575,8 +638,11 @@
       <c r="E8">
         <v>1570064968</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -592,8 +658,11 @@
       <c r="E9">
         <v>1570064969</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -609,8 +678,11 @@
       <c r="E10">
         <v>1570064970</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -623,8 +695,11 @@
       <c r="E11">
         <v>1570064971</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -640,8 +715,12 @@
       <c r="E12">
         <v>1570064972</v>
       </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
